--- a/agreement_participants/elsevier/agr_participants_elsevier_current.xlsx
+++ b/agreement_participants/elsevier/agr_participants_elsevier_current.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
   <si>
     <t xml:space="preserve">agr_name</t>
   </si>
@@ -38,70 +38,82 @@
     <t xml:space="preserve">agr_name_edvarda</t>
   </si>
   <si>
-    <t xml:space="preserve">agr_prod_name</t>
-  </si>
-  <si>
     <t xml:space="preserve">agr_date_start</t>
   </si>
   <si>
     <t xml:space="preserve">agr_date_end</t>
   </si>
   <si>
+    <t xml:space="preserve">agr_date_updated</t>
+  </si>
+  <si>
     <t xml:space="preserve">elsevier</t>
   </si>
   <si>
+    <t xml:space="preserve">Bergen Global, Chr. Michelsens Institutt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cmi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chr. Michelsen Institute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elsevier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elsevier Science Direct Freedom Collection 2022-2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departementenes Sikkerhets- Og Serviceorganisasjon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direktoratet for strålevern og atomsikkerhet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Folkehelseinstituttet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forsvarets forskningsinstitutt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ffi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRID-Arendal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grida</t>
+  </si>
+  <si>
     <t xml:space="preserve">Handelshøyskolen BI</t>
   </si>
   <si>
     <t xml:space="preserve">bi</t>
   </si>
   <si>
-    <t xml:space="preserve">Elsevier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Science Direct 2022-2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freedom Collection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bergen Global, Chr. Michelsens Institutt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cmi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chr. Michelsen Institute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direktoratet for strålevern og atomsikkerhet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dsa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Departementenes Sikkerhets- Og Serviceorganisasjon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forsvarets forskningsinstitutt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ffi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Folkehelseinstituttet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fhi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRID-Arendal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grid</t>
+    <t xml:space="preserve">Havforskningsinstituttet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Høgskolen I Innlandet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Høgskolen i Innlandet</t>
   </si>
   <si>
     <t xml:space="preserve">Høgskolen i Molde - Vitenskapelig høgskole i logistikk</t>
@@ -116,6 +128,21 @@
     <t xml:space="preserve">hioef</t>
   </si>
   <si>
+    <t xml:space="preserve">Høgskulen På Vestlandet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hvl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Høgskulen på Vestlandet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Høgskulen i Volda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hvo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Høyskolen Kristiania - Ernst G Mortensens Stiftelse</t>
   </si>
   <si>
@@ -125,42 +152,12 @@
     <t xml:space="preserve">Høyskolen Kristiania</t>
   </si>
   <si>
-    <t xml:space="preserve">Høgskulen På Vestlandet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hvl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Høgskulen på Vestlandet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Høgskulen i Volda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hvo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Institutt for energiteknikk</t>
   </si>
   <si>
     <t xml:space="preserve">ife</t>
   </si>
   <si>
-    <t xml:space="preserve">Havforskningsinstituttet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Høgskolen I Innlandet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Høgskolen i Innlandet</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lovisenberg Diakonale Høgskole</t>
   </si>
   <si>
@@ -170,16 +167,70 @@
     <t xml:space="preserve">Lovisenberg diakonale høgskole</t>
   </si>
   <si>
+    <t xml:space="preserve">Meteorologisk institutt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">met</t>
+  </si>
+  <si>
     <t xml:space="preserve">Miljødirektoratet</t>
   </si>
   <si>
     <t xml:space="preserve">mdir</t>
   </si>
   <si>
-    <t xml:space="preserve">Meteorologisk institutt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">met</t>
+    <t xml:space="preserve">NIBIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nibio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norsk institutt for bioøkonomi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NILU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nilu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NKVTS-Nasjonalt kunnskapssenter om vold og traumatisk stress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nkvts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nasjonalt kunnskapssenter om vold og traumatisk stress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NORCE Norwegian Research Centre AS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">norce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUBU - Nasjonalt utviklingssenter for barn og unge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nubu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nofima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nofima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOFIMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nord Universitet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nord universitet</t>
   </si>
   <si>
     <t xml:space="preserve">Norges Geotekniske Institutt</t>
@@ -188,43 +239,64 @@
     <t xml:space="preserve">ngi</t>
   </si>
   <si>
+    <t xml:space="preserve">Norges Handelshøyskole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nhh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norges Idrettshøgskole - Biblioteket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nih</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norges idrettshøgskole</t>
+  </si>
+  <si>
     <t xml:space="preserve">Norges geologiske undersøkelse</t>
   </si>
   <si>
     <t xml:space="preserve">ngu</t>
   </si>
   <si>
-    <t xml:space="preserve">Norges Handelshøyskole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nhh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIBIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nibio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norsk institutt for bioøkonomi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norges Idrettshøgskole - Biblioteket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nih</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norges idrettshøgskole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NILU - Stiftelsen Norsk Institutt For Luftforskning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nilu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NILU - Norsk institutt for luftforskning</t>
+    <t xml:space="preserve">Norges miljø- og biovitenskapelige universitet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nmbu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norges teknisk-naturvitenskapelige universitet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ntnu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ntnu_1920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Olavs Hospital HF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norges vassdrags- og energidirektorat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norsk Institutt For Vannforskning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">niva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norsk institutt for vannforskning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norsk Polarinstitutt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">npolar</t>
   </si>
   <si>
     <t xml:space="preserve">Norsk institutt for naturforskning</t>
@@ -233,75 +305,6 @@
     <t xml:space="preserve">nina</t>
   </si>
   <si>
-    <t xml:space="preserve">Norsk Institutt For Vannforskning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">niva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norsk institutt for vannforskning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norges miljø- og biovitenskapelige universitet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nmbu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nofima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nofima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOFIMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NORCE Norwegian Research Centre AS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">norce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nord Universitet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nord</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nord universitet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norsk Polarinstitutt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">npolar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norges teknisk-naturvitenskapelige universitet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ntnu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ntnu02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St. Olavs Hospital HF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUBU - Nasjonalt utviklingssenter for barn og unge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nubu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norges vassdrags- og energidirektorat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nve</t>
-  </si>
-  <si>
     <t xml:space="preserve">OsloMet - Storbyuniversitetet</t>
   </si>
   <si>
@@ -329,39 +332,45 @@
     <t xml:space="preserve">RURALIS – Institutt for rural- og regionalforskning</t>
   </si>
   <si>
-    <t xml:space="preserve">Subject Collections Agriculture &amp; Biological Sciences + Social Sciences</t>
-  </si>
-  <si>
     <t xml:space="preserve">SINTEF AS</t>
   </si>
   <si>
     <t xml:space="preserve">sintef</t>
   </si>
   <si>
+    <t xml:space="preserve">sintef_6228</t>
+  </si>
+  <si>
     <t xml:space="preserve">SINTEF Narvik</t>
   </si>
   <si>
-    <t xml:space="preserve">sintef02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sintef03</t>
+    <t xml:space="preserve">sintef_7548</t>
   </si>
   <si>
     <t xml:space="preserve">SINTEF Energi AS</t>
   </si>
   <si>
-    <t xml:space="preserve">sintef04</t>
+    <t xml:space="preserve">sintef_7566</t>
   </si>
   <si>
     <t xml:space="preserve">SINTEF Ocean</t>
   </si>
   <si>
-    <t xml:space="preserve">sintef05</t>
+    <t xml:space="preserve">sintef_7630</t>
   </si>
   <si>
     <t xml:space="preserve">SINTEF Manufacturing</t>
   </si>
   <si>
+    <t xml:space="preserve">Statens Arbeidsmiljøinstitutt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statens arbeidsmiljøinstitutt</t>
+  </si>
+  <si>
     <t xml:space="preserve">Statistisk Sentralbyrå</t>
   </si>
   <si>
@@ -371,15 +380,6 @@
     <t xml:space="preserve">Statistisk sentralbyrå</t>
   </si>
   <si>
-    <t xml:space="preserve">Statens Arbeidsmiljøinstitutt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stami</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statens arbeidsmiljøinstitutt</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tannhelsetjenestens Kompetansesentre</t>
   </si>
   <si>
@@ -389,13 +389,70 @@
     <t xml:space="preserve">Tannhelsetjenestens kompetansesentre</t>
   </si>
   <si>
-    <t xml:space="preserve">Transportøkonomisk Institutt</t>
+    <t xml:space="preserve">Transportøkonomisk institutt</t>
   </si>
   <si>
     <t xml:space="preserve">toei</t>
   </si>
   <si>
-    <t xml:space="preserve">Transportøkonomisk institutt</t>
+    <t xml:space="preserve">UiO : Universitetsbiblioteket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universitetet i Oslo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uio_1972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akershus universitetssykehus HF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uio_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oslo universitetssykehus HF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uio_5737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kreftregisteret - Institutt for populasjonsbasert kreftforskning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UiT - Norges arktiske universitet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UiT Norges arktiske universitet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uit_1902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universitetssykehuset Nord-Norge HF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universitetet I Stavanger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universitetet i Stavanger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universitetet I Sørøst-Norge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">usn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universitetet i Sørøst-Norge</t>
   </si>
   <si>
     <t xml:space="preserve">Universitetet i Agder</t>
@@ -410,97 +467,31 @@
     <t xml:space="preserve">uib</t>
   </si>
   <si>
-    <t xml:space="preserve">uib02</t>
+    <t xml:space="preserve">uib_1936</t>
   </si>
   <si>
     <t xml:space="preserve">Helse Bergen HF - Haukeland universitetssykehus</t>
   </si>
   <si>
-    <t xml:space="preserve">UiO : Universitetsbiblioteket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universitetet i Oslo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uio02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Akershus universitetssykehus HF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uio03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oslo universitetssykehus HF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uio04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kreftregisteret - Institutt for populasjonsbasert kreftforskning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universitetet I Stavanger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universitetet i Stavanger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UiT - Norges arktiske universitet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UiT Norges arktiske universitet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uit02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universitetssykehuset Nord-Norge HF</t>
-  </si>
-  <si>
     <t xml:space="preserve">Universitetssenteret på Svalbard</t>
   </si>
   <si>
     <t xml:space="preserve">unis</t>
   </si>
   <si>
-    <t xml:space="preserve">Universitetet I Sørøst-Norge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">usn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universitetet i Sørøst-Norge</t>
+    <t xml:space="preserve">VID Vitenskapelige Høgskole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VID vitenskapelige høgskole</t>
   </si>
   <si>
     <t xml:space="preserve">Veterinærinstituttet</t>
   </si>
   <si>
     <t xml:space="preserve">vetinst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VID Vitenskapelige Høgskole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VID vitenskapelige høgskole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NKVTS-Nasjonalt kunnskapssenter om vold og traumatisk stress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nasjonalt kunnskapssenter om vold og traumatisk stress</t>
   </si>
 </sst>
 </file>
@@ -886,28 +877,28 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>158</v>
+        <v>7416</v>
       </c>
       <c r="F2" t="n">
-        <v>15353</v>
+        <v>15355</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="3">
@@ -920,29 +911,25 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7416</v>
-      </c>
+      <c r="D3"/>
+      <c r="E3"/>
       <c r="F3" t="n">
-        <v>15355</v>
+        <v>15361</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="4">
@@ -950,10 +937,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -961,19 +948,19 @@
         <v>15505</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="5">
@@ -981,30 +968,34 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5"/>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7502</v>
+      </c>
       <c r="F5" t="n">
-        <v>15361</v>
+        <v>15419</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="6">
@@ -1012,13 +1003,13 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" t="n">
         <v>7428</v>
@@ -1027,19 +1018,19 @@
         <v>15418</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="7">
@@ -1047,34 +1038,30 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="n">
-        <v>7502</v>
-      </c>
+      <c r="D7"/>
+      <c r="E7"/>
       <c r="F7" t="n">
-        <v>15419</v>
+        <v>51025</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="8">
@@ -1082,30 +1069,34 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8"/>
-      <c r="E8"/>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="n">
+        <v>158</v>
+      </c>
       <c r="F8" t="n">
-        <v>51025</v>
+        <v>15353</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="9">
@@ -1113,34 +1104,34 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" t="n">
-        <v>211</v>
+        <v>7431</v>
       </c>
       <c r="F9" t="n">
-        <v>15435</v>
+        <v>15454</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J9" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K9" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="10">
@@ -1148,34 +1139,34 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>33</v>
       </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
       <c r="E10" t="n">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="F10" t="n">
-        <v>15443</v>
+        <v>15428</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J10" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K10" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="11">
@@ -1189,28 +1180,28 @@
         <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E11" t="n">
-        <v>1615</v>
+        <v>211</v>
       </c>
       <c r="F11" t="n">
-        <v>15444</v>
+        <v>15435</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K11" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="12">
@@ -1218,34 +1209,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
         <v>37</v>
       </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E12" t="n">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="F12" t="n">
-        <v>15449</v>
+        <v>15443</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="13">
@@ -1253,34 +1244,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
         <v>40</v>
       </c>
       <c r="E13" t="n">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="F13" t="n">
-        <v>15450</v>
+        <v>15449</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J13" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K13" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="14">
@@ -1288,34 +1279,34 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
         <v>42</v>
       </c>
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" t="n">
-        <v>7492</v>
+        <v>223</v>
       </c>
       <c r="F14" t="n">
-        <v>15451</v>
+        <v>15450</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J14" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K14" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="15">
@@ -1323,34 +1314,34 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
         <v>44</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>45</v>
       </c>
-      <c r="D15" t="s">
-        <v>44</v>
-      </c>
       <c r="E15" t="n">
-        <v>7431</v>
+        <v>1615</v>
       </c>
       <c r="F15" t="n">
-        <v>15454</v>
+        <v>15444</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="16">
@@ -1364,28 +1355,28 @@
         <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E16" t="n">
-        <v>209</v>
+        <v>7492</v>
       </c>
       <c r="F16" t="n">
-        <v>15428</v>
+        <v>15451</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="17">
@@ -1393,13 +1384,13 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
         <v>49</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>51</v>
       </c>
       <c r="E17" t="n">
         <v>230</v>
@@ -1408,19 +1399,19 @@
         <v>15464</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="18">
@@ -1428,30 +1419,34 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
         <v>52</v>
       </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18"/>
-      <c r="E18"/>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7419</v>
+      </c>
       <c r="F18" t="n">
-        <v>15467</v>
+        <v>15468</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J18" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K18" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="19">
@@ -1459,34 +1454,30 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
         <v>54</v>
       </c>
-      <c r="C19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" t="n">
-        <v>7419</v>
-      </c>
+      <c r="D19"/>
+      <c r="E19"/>
       <c r="F19" t="n">
-        <v>15468</v>
+        <v>15467</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J19" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K19" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="20">
@@ -1494,34 +1485,34 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
         <v>56</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>57</v>
       </c>
-      <c r="D20" t="s">
-        <v>56</v>
-      </c>
       <c r="E20" t="n">
-        <v>7452</v>
+        <v>7677</v>
       </c>
       <c r="F20" t="n">
-        <v>15477</v>
+        <v>15481</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J20" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="21">
@@ -1538,25 +1529,25 @@
         <v>58</v>
       </c>
       <c r="E21" t="n">
-        <v>7451</v>
+        <v>7460</v>
       </c>
       <c r="F21" t="n">
-        <v>15478</v>
+        <v>15488</v>
       </c>
       <c r="G21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K21" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="22">
@@ -1570,28 +1561,28 @@
         <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E22" t="n">
-        <v>191</v>
+        <v>6077</v>
       </c>
       <c r="F22" t="n">
-        <v>15480</v>
+        <v>51035</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J22" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K22" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="23">
@@ -1599,34 +1590,34 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" t="s">
         <v>63</v>
       </c>
-      <c r="D23" t="s">
-        <v>64</v>
-      </c>
       <c r="E23" t="n">
-        <v>7677</v>
+        <v>2057</v>
       </c>
       <c r="F23" t="n">
-        <v>15481</v>
+        <v>50928</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J23" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K23" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="24">
@@ -1639,29 +1630,25 @@
       <c r="C24" t="s">
         <v>66</v>
       </c>
-      <c r="D24" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" t="n">
-        <v>150</v>
-      </c>
+      <c r="D24"/>
+      <c r="E24"/>
       <c r="F24" t="n">
-        <v>15485</v>
+        <v>51031</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H24" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J24" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="25">
@@ -1669,34 +1656,34 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
         <v>68</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>69</v>
       </c>
-      <c r="D25" t="s">
-        <v>70</v>
-      </c>
       <c r="E25" t="n">
-        <v>7460</v>
+        <v>7543</v>
       </c>
       <c r="F25" t="n">
-        <v>15488</v>
+        <v>15496</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H25" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J25" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K25" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="26">
@@ -1704,34 +1691,34 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
         <v>71</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>72</v>
       </c>
-      <c r="D26" t="s">
-        <v>71</v>
-      </c>
       <c r="E26" t="n">
-        <v>7511</v>
+        <v>204</v>
       </c>
       <c r="F26" t="n">
-        <v>15489</v>
+        <v>15499</v>
       </c>
       <c r="G26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H26" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J26" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K26" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="27">
@@ -1745,28 +1732,28 @@
         <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E27" t="n">
-        <v>7464</v>
+        <v>7452</v>
       </c>
       <c r="F27" t="n">
-        <v>15491</v>
+        <v>15477</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H27" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J27" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K27" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="28">
@@ -1774,34 +1761,34 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" t="s">
         <v>76</v>
       </c>
-      <c r="C28" t="s">
-        <v>77</v>
-      </c>
       <c r="D28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E28" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F28" t="n">
-        <v>15493</v>
+        <v>15480</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H28" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J28" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K28" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="29">
@@ -1809,34 +1796,34 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" t="s">
         <v>78</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>79</v>
       </c>
-      <c r="D29" t="s">
-        <v>80</v>
-      </c>
       <c r="E29" t="n">
-        <v>7543</v>
+        <v>150</v>
       </c>
       <c r="F29" t="n">
-        <v>15496</v>
+        <v>15485</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H29" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J29" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K29" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="30">
@@ -1844,34 +1831,34 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" t="s">
         <v>81</v>
       </c>
-      <c r="C30" t="s">
-        <v>82</v>
-      </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E30" t="n">
-        <v>2057</v>
+        <v>7451</v>
       </c>
       <c r="F30" t="n">
-        <v>50928</v>
+        <v>15478</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H30" t="s">
-        <v>15</v>
-      </c>
-      <c r="I30" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J30" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K30" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="31">
@@ -1879,34 +1866,34 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" t="s">
         <v>83</v>
       </c>
-      <c r="C31" t="s">
-        <v>84</v>
-      </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E31" t="n">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="F31" t="n">
-        <v>15499</v>
+        <v>15493</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H31" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J31" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K31" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="32">
@@ -1914,34 +1901,34 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E32" t="n">
-        <v>7466</v>
+        <v>194</v>
       </c>
       <c r="F32" t="n">
-        <v>15502</v>
+        <v>15507</v>
       </c>
       <c r="G32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H32" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J32" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K32" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="33">
@@ -1949,34 +1936,34 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E33" t="n">
-        <v>194</v>
+        <v>1920</v>
       </c>
       <c r="F33" t="n">
         <v>15507</v>
       </c>
       <c r="G33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H33" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J33" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K33" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="34">
@@ -1987,31 +1974,27 @@
         <v>88</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
-      </c>
-      <c r="D34" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1920</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34"/>
       <c r="F34" t="n">
-        <v>15507</v>
+        <v>15509</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H34" t="s">
-        <v>15</v>
-      </c>
-      <c r="I34" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J34" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K34" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="35">
@@ -2019,30 +2002,34 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" t="s">
         <v>92</v>
       </c>
-      <c r="C35" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35"/>
-      <c r="E35"/>
+      <c r="E35" t="n">
+        <v>7464</v>
+      </c>
       <c r="F35" t="n">
-        <v>51031</v>
+        <v>15491</v>
       </c>
       <c r="G35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H35" t="s">
-        <v>15</v>
-      </c>
-      <c r="I35" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J35" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K35" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="36">
@@ -2050,30 +2037,34 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" t="s">
         <v>94</v>
       </c>
-      <c r="C36" t="s">
-        <v>95</v>
-      </c>
-      <c r="D36"/>
-      <c r="E36"/>
+      <c r="D36" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" t="n">
+        <v>7466</v>
+      </c>
       <c r="F36" t="n">
-        <v>15509</v>
+        <v>15502</v>
       </c>
       <c r="G36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H36" t="s">
-        <v>15</v>
-      </c>
-      <c r="I36" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J36" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K36" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="37">
@@ -2081,34 +2072,34 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" t="s">
         <v>96</v>
       </c>
-      <c r="C37" t="s">
-        <v>97</v>
-      </c>
       <c r="D37" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E37" t="n">
-        <v>215</v>
+        <v>7511</v>
       </c>
       <c r="F37" t="n">
-        <v>15439</v>
+        <v>15489</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H37" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J37" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K37" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="38">
@@ -2116,34 +2107,34 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" t="s">
         <v>99</v>
       </c>
-      <c r="C38" t="s">
-        <v>100</v>
-      </c>
-      <c r="D38" t="s">
-        <v>101</v>
-      </c>
       <c r="E38" t="n">
-        <v>7539</v>
+        <v>215</v>
       </c>
       <c r="F38" t="n">
-        <v>15519</v>
+        <v>15439</v>
       </c>
       <c r="G38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I38" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J38" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K38" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="39">
@@ -2151,34 +2142,34 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" t="s">
         <v>102</v>
       </c>
-      <c r="C39" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" t="s">
-        <v>104</v>
-      </c>
       <c r="E39" t="n">
-        <v>7501</v>
+        <v>7539</v>
       </c>
       <c r="F39" t="n">
-        <v>51034</v>
+        <v>15519</v>
       </c>
       <c r="G39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H39" t="s">
-        <v>15</v>
-      </c>
-      <c r="I39" t="s">
-        <v>105</v>
+        <v>16</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J39" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K39" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="40">
@@ -2186,34 +2177,34 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D40" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E40" t="n">
-        <v>6228</v>
+        <v>7501</v>
       </c>
       <c r="F40" t="n">
-        <v>15526</v>
+        <v>51034</v>
       </c>
       <c r="G40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H40" t="s">
-        <v>15</v>
-      </c>
-      <c r="I40" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J40" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K40" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="41">
@@ -2224,7 +2215,7 @@
         <v>106</v>
       </c>
       <c r="C41" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D41" t="s">
         <v>106</v>
@@ -2236,19 +2227,19 @@
         <v>15526</v>
       </c>
       <c r="G41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H41" t="s">
-        <v>15</v>
-      </c>
-      <c r="I41" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J41" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K41" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="42">
@@ -2259,31 +2250,31 @@
         <v>106</v>
       </c>
       <c r="C42" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E42" t="n">
-        <v>7548</v>
+        <v>6228</v>
       </c>
       <c r="F42" t="n">
         <v>15526</v>
       </c>
       <c r="G42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H42" t="s">
-        <v>15</v>
-      </c>
-      <c r="I42" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I42" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J42" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K42" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="43">
@@ -2294,31 +2285,31 @@
         <v>106</v>
       </c>
       <c r="C43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D43" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E43" t="n">
-        <v>7566</v>
+        <v>7548</v>
       </c>
       <c r="F43" t="n">
         <v>15526</v>
       </c>
       <c r="G43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H43" t="s">
-        <v>15</v>
-      </c>
-      <c r="I43" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I43" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J43" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K43" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="44">
@@ -2329,31 +2320,31 @@
         <v>106</v>
       </c>
       <c r="C44" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D44" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E44" t="n">
-        <v>7630</v>
+        <v>7566</v>
       </c>
       <c r="F44" t="n">
         <v>15526</v>
       </c>
       <c r="G44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H44" t="s">
-        <v>15</v>
-      </c>
-      <c r="I44" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I44" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J44" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K44" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="45">
@@ -2361,34 +2352,34 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C45" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D45" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E45" t="n">
-        <v>5932</v>
+        <v>7630</v>
       </c>
       <c r="F45" t="n">
-        <v>15535</v>
+        <v>15526</v>
       </c>
       <c r="G45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H45" t="s">
-        <v>15</v>
-      </c>
-      <c r="I45" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I45" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J45" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K45" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="46">
@@ -2396,13 +2387,13 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D46" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E46" t="n">
         <v>7476</v>
@@ -2411,19 +2402,19 @@
         <v>15537</v>
       </c>
       <c r="G46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H46" t="s">
-        <v>15</v>
-      </c>
-      <c r="I46" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I46" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J46" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K46" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="47">
@@ -2431,34 +2422,34 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C47" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D47" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E47" t="n">
-        <v>2060</v>
+        <v>5932</v>
       </c>
       <c r="F47" t="n">
-        <v>15541</v>
+        <v>15535</v>
       </c>
       <c r="G47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H47" t="s">
-        <v>15</v>
-      </c>
-      <c r="I47" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I47" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J47" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K47" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="48">
@@ -2466,34 +2457,34 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C48" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D48" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E48" t="n">
-        <v>7482</v>
+        <v>2060</v>
       </c>
       <c r="F48" t="n">
-        <v>15544</v>
+        <v>15541</v>
       </c>
       <c r="G48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H48" t="s">
-        <v>15</v>
-      </c>
-      <c r="I48" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I48" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J48" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K48" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="49">
@@ -2501,34 +2492,34 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C49" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D49" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E49" t="n">
-        <v>201</v>
+        <v>7482</v>
       </c>
       <c r="F49" t="n">
-        <v>15548</v>
+        <v>15544</v>
       </c>
       <c r="G49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H49" t="s">
-        <v>15</v>
-      </c>
-      <c r="I49" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I49" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J49" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K49" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="50">
@@ -2536,34 +2527,34 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C50" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E50" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F50" t="n">
-        <v>15549</v>
+        <v>15550</v>
       </c>
       <c r="G50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H50" t="s">
-        <v>15</v>
-      </c>
-      <c r="I50" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I50" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J50" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K50" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="51">
@@ -2571,34 +2562,34 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" t="s">
         <v>130</v>
       </c>
-      <c r="C51" t="s">
-        <v>132</v>
-      </c>
       <c r="D51" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E51" t="n">
-        <v>1936</v>
+        <v>1972</v>
       </c>
       <c r="F51" t="n">
-        <v>15549</v>
+        <v>15550</v>
       </c>
       <c r="G51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H51" t="s">
-        <v>15</v>
-      </c>
-      <c r="I51" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I51" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J51" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K51" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="52">
@@ -2606,34 +2597,34 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C52" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D52" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E52" t="n">
-        <v>185</v>
+        <v>2012</v>
       </c>
       <c r="F52" t="n">
         <v>15550</v>
       </c>
       <c r="G52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H52" t="s">
-        <v>15</v>
-      </c>
-      <c r="I52" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I52" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J52" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K52" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="53">
@@ -2641,34 +2632,34 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C53" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D53" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E53" t="n">
-        <v>1972</v>
+        <v>2012</v>
       </c>
       <c r="F53" t="n">
         <v>15550</v>
       </c>
       <c r="G53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H53" t="s">
-        <v>15</v>
-      </c>
-      <c r="I53" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I53" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J53" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K53" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="54">
@@ -2676,34 +2667,34 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" t="s">
         <v>134</v>
       </c>
-      <c r="C54" t="s">
-        <v>139</v>
-      </c>
       <c r="D54" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E54" t="n">
-        <v>2012</v>
+        <v>5737</v>
       </c>
       <c r="F54" t="n">
         <v>15550</v>
       </c>
       <c r="G54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H54" t="s">
-        <v>15</v>
-      </c>
-      <c r="I54" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I54" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J54" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K54" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="55">
@@ -2711,34 +2702,34 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C55" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D55" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E55" t="n">
-        <v>5737</v>
+        <v>186</v>
       </c>
       <c r="F55" t="n">
-        <v>15550</v>
+        <v>15552</v>
       </c>
       <c r="G55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H55" t="s">
-        <v>15</v>
-      </c>
-      <c r="I55" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I55" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J55" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K55" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="56">
@@ -2746,34 +2737,34 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C56" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D56" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E56" t="n">
-        <v>217</v>
+        <v>1902</v>
       </c>
       <c r="F56" t="n">
-        <v>15551</v>
+        <v>15552</v>
       </c>
       <c r="G56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H56" t="s">
-        <v>15</v>
-      </c>
-      <c r="I56" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I56" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J56" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K56" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="57">
@@ -2781,34 +2772,34 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C57" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D57" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E57" t="n">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="F57" t="n">
-        <v>15552</v>
+        <v>15551</v>
       </c>
       <c r="G57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H57" t="s">
-        <v>15</v>
-      </c>
-      <c r="I57" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I57" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J57" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K57" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="58">
@@ -2816,34 +2807,34 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D58" t="s">
         <v>146</v>
       </c>
-      <c r="C58" t="s">
-        <v>149</v>
-      </c>
-      <c r="D58" t="s">
-        <v>150</v>
-      </c>
       <c r="E58" t="n">
-        <v>1902</v>
+        <v>222</v>
       </c>
       <c r="F58" t="n">
-        <v>15552</v>
+        <v>15447</v>
       </c>
       <c r="G58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H58" t="s">
-        <v>15</v>
-      </c>
-      <c r="I58" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I58" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J58" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K58" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="59">
@@ -2851,34 +2842,34 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C59" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D59" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E59" t="n">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F59" t="n">
-        <v>15553</v>
+        <v>15548</v>
       </c>
       <c r="G59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H59" t="s">
-        <v>15</v>
-      </c>
-      <c r="I59" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I59" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J59" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K59" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="60">
@@ -2886,34 +2877,34 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C60" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D60" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E60" t="n">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="F60" t="n">
-        <v>15447</v>
+        <v>15549</v>
       </c>
       <c r="G60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H60" t="s">
-        <v>15</v>
-      </c>
-      <c r="I60" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I60" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J60" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K60" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="61">
@@ -2921,34 +2912,34 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C61" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D61" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E61" t="n">
-        <v>7497</v>
+        <v>1936</v>
       </c>
       <c r="F61" t="n">
-        <v>15556</v>
+        <v>15549</v>
       </c>
       <c r="G61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H61" t="s">
-        <v>15</v>
-      </c>
-      <c r="I61" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I61" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J61" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K61" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="62">
@@ -2956,34 +2947,34 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C62" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D62" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E62" t="n">
-        <v>251</v>
+        <v>195</v>
       </c>
       <c r="F62" t="n">
-        <v>15557</v>
+        <v>15553</v>
       </c>
       <c r="G62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H62" t="s">
-        <v>15</v>
-      </c>
-      <c r="I62" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I62" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J62" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K62" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="63">
@@ -2991,30 +2982,69 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>161</v>
-      </c>
-      <c r="C63"/>
+        <v>155</v>
+      </c>
+      <c r="C63" t="s">
+        <v>156</v>
+      </c>
       <c r="D63" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E63" t="n">
-        <v>6077</v>
-      </c>
-      <c r="F63"/>
+        <v>251</v>
+      </c>
+      <c r="F63" t="n">
+        <v>15557</v>
+      </c>
       <c r="G63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H63" t="s">
-        <v>15</v>
-      </c>
-      <c r="I63" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I63" s="1" t="n">
+        <v>44562</v>
       </c>
       <c r="J63" s="1" t="n">
-        <v>44562</v>
+        <v>45657</v>
       </c>
       <c r="K63" s="1" t="n">
-        <v>45657</v>
+        <v>45368</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" t="s">
+        <v>158</v>
+      </c>
+      <c r="C64" t="s">
+        <v>159</v>
+      </c>
+      <c r="D64" t="s">
+        <v>158</v>
+      </c>
+      <c r="E64" t="n">
+        <v>7497</v>
+      </c>
+      <c r="F64" t="n">
+        <v>15556</v>
+      </c>
+      <c r="G64" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64" s="1" t="n">
+        <v>44562</v>
+      </c>
+      <c r="J64" s="1" t="n">
+        <v>45657</v>
+      </c>
+      <c r="K64" s="1" t="n">
+        <v>45368</v>
       </c>
     </row>
   </sheetData>
